--- a/Input/CTTT/CTTT.xlsx
+++ b/Input/CTTT/CTTT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a0e9ff80be76c762/Tools/Software/OBS/CaptainToad/_Strategy/DP4SR/Input/CTTT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a0e9ff80be76c762/Tools/Software/OBS/CaptainToad/Strategy/DP4SR/Input/CTTT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{7D58863E-E4EA-4DC2-887E-96AFF5E74659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99065462-A180-4D83-8473-0FB4E5CD6040}"/>
+  <xr:revisionPtr revIDLastSave="346" documentId="13_ncr:1_{7D58863E-E4EA-4DC2-887E-96AFF5E74659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{129FFCF8-5597-45AB-A574-8D0849FA073E}"/>
   <bookViews>
-    <workbookView xWindow="-23854" yWindow="-16414" windowWidth="23503" windowHeight="15557" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Levels" sheetId="1" r:id="rId1"/>
@@ -1277,14 +1277,14 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.9"/>
   <cols>
     <col min="1" max="1" width="10.35546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.0703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.640625" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="17.640625" style="17" bestFit="1" customWidth="1"/>
@@ -1362,16 +1362,16 @@
         <v>84</v>
       </c>
       <c r="E2" s="16">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F2" s="17">
-        <v>999</v>
+        <v>34</v>
       </c>
       <c r="G2" s="17">
-        <v>999</v>
+        <v>37</v>
       </c>
       <c r="H2" s="17">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="I2" s="5">
         <v>1</v>
@@ -1391,16 +1391,16 @@
         <v>23</v>
       </c>
       <c r="E3" s="16">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F3" s="17">
-        <v>999</v>
+        <v>43.5</v>
       </c>
       <c r="G3" s="17">
-        <v>999</v>
+        <v>45</v>
       </c>
       <c r="H3" s="17">
-        <v>0</v>
+        <v>50.5</v>
       </c>
       <c r="I3" s="5">
         <v>1</v>
@@ -1420,16 +1420,16 @@
         <v>24</v>
       </c>
       <c r="E4" s="16">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F4" s="17">
-        <v>999</v>
+        <v>25</v>
       </c>
       <c r="G4" s="17">
-        <v>999</v>
+        <v>32</v>
       </c>
       <c r="H4" s="17">
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="I4" s="5">
         <v>1</v>
@@ -1449,16 +1449,16 @@
         <v>25</v>
       </c>
       <c r="E5" s="16">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F5" s="17">
-        <v>999</v>
+        <v>38.5</v>
       </c>
       <c r="G5" s="17">
-        <v>999</v>
+        <v>42</v>
       </c>
       <c r="H5" s="17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I5" s="5">
         <v>1</v>
@@ -1478,16 +1478,16 @@
         <v>26</v>
       </c>
       <c r="E6" s="16">
-        <v>0</v>
+        <v>75.5</v>
       </c>
       <c r="F6" s="17">
-        <v>999</v>
+        <v>75.5</v>
       </c>
       <c r="G6" s="17">
-        <v>999</v>
+        <v>76.5</v>
       </c>
       <c r="H6" s="17">
-        <v>0</v>
+        <v>79.5</v>
       </c>
       <c r="I6" s="5">
         <v>1</v>
@@ -1513,16 +1513,16 @@
         <v>27</v>
       </c>
       <c r="E7" s="16">
-        <v>0</v>
+        <v>9017</v>
       </c>
       <c r="F7" s="17">
-        <v>999</v>
+        <v>59</v>
       </c>
       <c r="G7" s="17">
-        <v>999</v>
+        <v>61.5</v>
       </c>
       <c r="H7" s="17">
-        <v>0</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1536,16 +1536,16 @@
         <v>28</v>
       </c>
       <c r="E8" s="16">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F8" s="17">
-        <v>999</v>
+        <v>30</v>
       </c>
       <c r="G8" s="17">
-        <v>999</v>
+        <v>39</v>
       </c>
       <c r="H8" s="17">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I8" s="5">
         <v>1</v>
@@ -1565,16 +1565,16 @@
         <v>29</v>
       </c>
       <c r="E9" s="16">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F9" s="17">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="G9" s="17">
-        <v>999</v>
+        <v>90</v>
       </c>
       <c r="H9" s="17">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I9" s="5">
         <v>1</v>
@@ -1600,16 +1600,16 @@
         <v>30</v>
       </c>
       <c r="E10" s="16">
-        <v>0</v>
+        <v>9017</v>
       </c>
       <c r="F10" s="17">
-        <v>999</v>
+        <v>67</v>
       </c>
       <c r="G10" s="17">
-        <v>999</v>
+        <v>77.5</v>
       </c>
       <c r="H10" s="17">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1626,16 +1626,16 @@
         <v>12</v>
       </c>
       <c r="E11" s="16">
-        <v>0</v>
+        <v>79.5</v>
       </c>
       <c r="F11" s="17">
-        <v>999</v>
+        <v>80.5</v>
       </c>
       <c r="G11" s="17">
-        <v>999</v>
+        <v>82</v>
       </c>
       <c r="H11" s="17">
-        <v>0</v>
+        <v>95.5</v>
       </c>
       <c r="I11" s="5">
         <v>1</v>
@@ -1655,16 +1655,16 @@
         <v>32</v>
       </c>
       <c r="E12" s="16">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F12" s="17">
-        <v>999</v>
+        <v>33.5</v>
       </c>
       <c r="G12" s="17">
-        <v>999</v>
+        <v>39</v>
       </c>
       <c r="H12" s="17">
-        <v>0</v>
+        <v>55.5</v>
       </c>
       <c r="I12" s="5">
         <v>1</v>
@@ -1690,16 +1690,16 @@
         <v>33</v>
       </c>
       <c r="E13" s="16">
-        <v>0</v>
+        <v>9017</v>
       </c>
       <c r="F13" s="17">
-        <v>999</v>
+        <v>50</v>
       </c>
       <c r="G13" s="17">
-        <v>999</v>
+        <v>53</v>
       </c>
       <c r="H13" s="17">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1713,16 +1713,16 @@
         <v>34</v>
       </c>
       <c r="E14" s="16">
-        <v>0</v>
+        <v>33.5</v>
       </c>
       <c r="F14" s="17">
-        <v>999</v>
+        <v>35</v>
       </c>
       <c r="G14" s="17">
-        <v>999</v>
+        <v>39</v>
       </c>
       <c r="H14" s="17">
-        <v>0</v>
+        <v>50.5</v>
       </c>
       <c r="I14" s="5">
         <v>1</v>
@@ -1742,16 +1742,16 @@
         <v>35</v>
       </c>
       <c r="E15" s="16">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F15" s="17">
-        <v>999</v>
+        <v>59.5</v>
       </c>
       <c r="G15" s="17">
-        <v>999</v>
+        <v>68</v>
       </c>
       <c r="H15" s="17">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I15" s="5">
         <v>1</v>
@@ -1777,16 +1777,16 @@
         <v>36</v>
       </c>
       <c r="E16" s="16">
-        <v>0</v>
+        <v>9017</v>
       </c>
       <c r="F16" s="17">
-        <v>999</v>
+        <v>56</v>
       </c>
       <c r="G16" s="17">
-        <v>999</v>
+        <v>57</v>
       </c>
       <c r="H16" s="17">
-        <v>0</v>
+        <v>58.5</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1800,16 +1800,16 @@
         <v>37</v>
       </c>
       <c r="E17" s="16">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F17" s="17">
-        <v>999</v>
+        <v>47.5</v>
       </c>
       <c r="G17" s="17">
-        <v>999</v>
+        <v>51.5</v>
       </c>
       <c r="H17" s="17">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="I17" s="5">
         <v>1</v>
@@ -1829,16 +1829,16 @@
         <v>38</v>
       </c>
       <c r="E18" s="16">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="F18" s="17">
-        <v>999</v>
+        <v>70</v>
       </c>
       <c r="G18" s="17">
-        <v>999</v>
+        <v>71.5</v>
       </c>
       <c r="H18" s="17">
-        <v>0</v>
+        <v>80.5</v>
       </c>
       <c r="I18" s="5">
         <v>1</v>
@@ -1861,16 +1861,16 @@
         <v>30</v>
       </c>
       <c r="E19" s="16">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F19" s="17">
-        <v>999</v>
+        <v>55</v>
       </c>
       <c r="G19" s="17">
-        <v>999</v>
+        <v>64</v>
       </c>
       <c r="H19" s="17">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I19" s="5">
         <v>2</v>
@@ -1890,16 +1890,16 @@
         <v>40</v>
       </c>
       <c r="E20" s="16">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F20" s="17">
-        <v>999</v>
+        <v>51.5</v>
       </c>
       <c r="G20" s="17">
-        <v>999</v>
+        <v>55.5</v>
       </c>
       <c r="H20" s="17">
-        <v>0</v>
+        <v>65.5</v>
       </c>
       <c r="I20" s="5">
         <v>2</v>
@@ -1919,16 +1919,16 @@
         <v>41</v>
       </c>
       <c r="E21" s="16">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F21" s="17">
-        <v>999</v>
+        <v>49.5</v>
       </c>
       <c r="G21" s="17">
-        <v>999</v>
+        <v>65</v>
       </c>
       <c r="H21" s="17">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="I21" s="5">
         <v>2</v>
@@ -1948,16 +1948,16 @@
         <v>42</v>
       </c>
       <c r="E22" s="16">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F22" s="17">
-        <v>999</v>
+        <v>85</v>
       </c>
       <c r="G22" s="17">
-        <v>999</v>
+        <v>85</v>
       </c>
       <c r="H22" s="17">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="I22" s="5">
         <v>2</v>
@@ -1977,16 +1977,16 @@
         <v>43</v>
       </c>
       <c r="E23" s="16">
-        <v>0</v>
+        <v>36.5</v>
       </c>
       <c r="F23" s="17">
-        <v>999</v>
+        <v>40.5</v>
       </c>
       <c r="G23" s="17">
-        <v>999</v>
+        <v>41.5</v>
       </c>
       <c r="H23" s="17">
-        <v>0</v>
+        <v>51.5</v>
       </c>
       <c r="I23" s="5">
         <v>2</v>
@@ -2006,16 +2006,16 @@
         <v>44</v>
       </c>
       <c r="E24" s="16">
-        <v>0</v>
+        <v>31.5</v>
       </c>
       <c r="F24" s="17">
-        <v>999</v>
+        <v>36.5</v>
       </c>
       <c r="G24" s="17">
-        <v>999</v>
+        <v>46.5</v>
       </c>
       <c r="H24" s="17">
-        <v>0</v>
+        <v>78.5</v>
       </c>
       <c r="I24" s="5">
         <v>2</v>
@@ -2041,16 +2041,16 @@
         <v>45</v>
       </c>
       <c r="E25" s="16">
-        <v>0</v>
+        <v>9017</v>
       </c>
       <c r="F25" s="17">
-        <v>999</v>
+        <v>98</v>
       </c>
       <c r="G25" s="17">
-        <v>999</v>
+        <v>98</v>
       </c>
       <c r="H25" s="17">
-        <v>0</v>
+        <v>106.5</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -2064,16 +2064,16 @@
         <v>46</v>
       </c>
       <c r="E26" s="16">
-        <v>0</v>
+        <v>37.5</v>
       </c>
       <c r="F26" s="17">
-        <v>999</v>
+        <v>37.5</v>
       </c>
       <c r="G26" s="17">
-        <v>999</v>
+        <v>43.5</v>
       </c>
       <c r="H26" s="17">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I26" s="5">
         <v>2</v>
@@ -2093,16 +2093,16 @@
         <v>85</v>
       </c>
       <c r="E27" s="16">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F27" s="17">
-        <v>999</v>
+        <v>42.5</v>
       </c>
       <c r="G27" s="17">
-        <v>999</v>
+        <v>49</v>
       </c>
       <c r="H27" s="17">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I27" s="5">
         <v>2</v>
@@ -2125,16 +2125,16 @@
         <v>55</v>
       </c>
       <c r="E28" s="16">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="F28" s="17">
-        <v>999</v>
+        <v>87</v>
       </c>
       <c r="G28" s="17">
-        <v>999</v>
+        <v>95</v>
       </c>
       <c r="H28" s="17">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="I28" s="5">
         <v>2</v>
@@ -2154,16 +2154,16 @@
         <v>48</v>
       </c>
       <c r="E29" s="16">
-        <v>0</v>
+        <v>40.5</v>
       </c>
       <c r="F29" s="17">
-        <v>999</v>
+        <v>40.5</v>
       </c>
       <c r="G29" s="17">
-        <v>999</v>
+        <v>41</v>
       </c>
       <c r="H29" s="17">
-        <v>0</v>
+        <v>59.5</v>
       </c>
       <c r="I29" s="5">
         <v>2</v>
@@ -2195,16 +2195,16 @@
         <v>49</v>
       </c>
       <c r="E30" s="16">
-        <v>0</v>
+        <v>9017</v>
       </c>
       <c r="F30" s="17">
-        <v>999</v>
+        <v>36</v>
       </c>
       <c r="G30" s="17">
-        <v>999</v>
+        <v>42.5</v>
       </c>
       <c r="H30" s="17">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -2218,16 +2218,16 @@
         <v>50</v>
       </c>
       <c r="E31" s="16">
-        <v>0</v>
+        <v>9017</v>
       </c>
       <c r="F31" s="17">
-        <v>999</v>
+        <v>42</v>
       </c>
       <c r="G31" s="17">
-        <v>999</v>
+        <v>43.5</v>
       </c>
       <c r="H31" s="17">
-        <v>0</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2244,16 +2244,16 @@
         <v>60</v>
       </c>
       <c r="E32" s="16">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F32" s="17">
-        <v>999</v>
+        <v>39.5</v>
       </c>
       <c r="G32" s="17">
-        <v>999</v>
+        <v>57</v>
       </c>
       <c r="H32" s="17">
-        <v>0</v>
+        <v>64.5</v>
       </c>
       <c r="I32" s="5">
         <v>2</v>
@@ -2273,16 +2273,16 @@
         <v>52</v>
       </c>
       <c r="E33" s="16">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="F33" s="17">
-        <v>999</v>
+        <v>44</v>
       </c>
       <c r="G33" s="17">
-        <v>999</v>
+        <v>49</v>
       </c>
       <c r="H33" s="17">
-        <v>0</v>
+        <v>93.5</v>
       </c>
       <c r="I33" s="5">
         <v>2</v>
@@ -2314,16 +2314,16 @@
         <v>53</v>
       </c>
       <c r="E34" s="16">
-        <v>0</v>
+        <v>9017</v>
       </c>
       <c r="F34" s="17">
-        <v>999</v>
+        <v>69</v>
       </c>
       <c r="G34" s="17">
-        <v>999</v>
+        <v>77</v>
       </c>
       <c r="H34" s="17">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2337,16 +2337,16 @@
         <v>54</v>
       </c>
       <c r="E35" s="16">
-        <v>0</v>
+        <v>9017</v>
       </c>
       <c r="F35" s="17">
-        <v>999</v>
+        <v>48.5</v>
       </c>
       <c r="G35" s="17">
-        <v>999</v>
+        <v>53.5</v>
       </c>
       <c r="H35" s="17">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2360,16 +2360,16 @@
         <v>55</v>
       </c>
       <c r="E36" s="16">
-        <v>0</v>
+        <v>50.5</v>
       </c>
       <c r="F36" s="17">
-        <v>999</v>
+        <v>54.5</v>
       </c>
       <c r="G36" s="17">
-        <v>999</v>
+        <v>61.5</v>
       </c>
       <c r="H36" s="17">
-        <v>0</v>
+        <v>83.5</v>
       </c>
       <c r="I36" s="5">
         <v>2</v>
@@ -2392,16 +2392,16 @@
         <v>75</v>
       </c>
       <c r="E37" s="16">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="F37" s="17">
-        <v>999</v>
+        <v>113</v>
       </c>
       <c r="G37" s="17">
-        <v>999</v>
+        <v>115.5</v>
       </c>
       <c r="H37" s="17">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="I37" s="5">
         <v>3</v>
@@ -2439,16 +2439,16 @@
         <v>57</v>
       </c>
       <c r="E38" s="16">
-        <v>0</v>
+        <v>9017</v>
       </c>
       <c r="F38" s="17">
-        <v>999</v>
+        <v>26</v>
       </c>
       <c r="G38" s="17">
-        <v>999</v>
+        <v>36.5</v>
       </c>
       <c r="H38" s="17">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2462,16 +2462,16 @@
         <v>58</v>
       </c>
       <c r="E39" s="16">
-        <v>0</v>
+        <v>9017</v>
       </c>
       <c r="F39" s="17">
-        <v>999</v>
+        <v>48.5</v>
       </c>
       <c r="G39" s="17">
-        <v>999</v>
+        <v>53</v>
       </c>
       <c r="H39" s="17">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2485,16 +2485,16 @@
         <v>59</v>
       </c>
       <c r="E40" s="16">
-        <v>0</v>
+        <v>9017</v>
       </c>
       <c r="F40" s="17">
-        <v>999</v>
+        <v>58</v>
       </c>
       <c r="G40" s="17">
-        <v>999</v>
+        <v>58</v>
       </c>
       <c r="H40" s="17">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2511,16 +2511,16 @@
         <v>80</v>
       </c>
       <c r="E41" s="16">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="F41" s="17">
-        <v>999</v>
+        <v>56</v>
       </c>
       <c r="G41" s="17">
-        <v>999</v>
+        <v>58.5</v>
       </c>
       <c r="H41" s="17">
-        <v>0</v>
+        <v>68.5</v>
       </c>
       <c r="I41" s="5">
         <v>3</v>
@@ -2540,16 +2540,16 @@
         <v>61</v>
       </c>
       <c r="E42" s="16">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="F42" s="17">
-        <v>999</v>
+        <v>54</v>
       </c>
       <c r="G42" s="17">
-        <v>999</v>
+        <v>56.5</v>
       </c>
       <c r="H42" s="17">
-        <v>0</v>
+        <v>65.5</v>
       </c>
       <c r="I42" s="5">
         <v>3</v>
@@ -2587,16 +2587,16 @@
         <v>62</v>
       </c>
       <c r="E43" s="16">
-        <v>0</v>
+        <v>9017</v>
       </c>
       <c r="F43" s="17">
-        <v>999</v>
+        <v>30.5</v>
       </c>
       <c r="G43" s="17">
-        <v>999</v>
+        <v>41</v>
       </c>
       <c r="H43" s="17">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2610,16 +2610,16 @@
         <v>63</v>
       </c>
       <c r="E44" s="16">
-        <v>0</v>
+        <v>9017</v>
       </c>
       <c r="F44" s="17">
-        <v>999</v>
+        <v>48.5</v>
       </c>
       <c r="G44" s="17">
-        <v>999</v>
+        <v>52</v>
       </c>
       <c r="H44" s="17">
-        <v>0</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2633,16 +2633,16 @@
         <v>64</v>
       </c>
       <c r="E45" s="16">
-        <v>0</v>
+        <v>9017</v>
       </c>
       <c r="F45" s="17">
-        <v>999</v>
+        <v>46</v>
       </c>
       <c r="G45" s="17">
-        <v>999</v>
+        <v>46.5</v>
       </c>
       <c r="H45" s="17">
-        <v>0</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2659,16 +2659,16 @@
         <v>100</v>
       </c>
       <c r="E46" s="16">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="F46" s="17">
-        <v>999</v>
+        <v>155</v>
       </c>
       <c r="G46" s="17">
-        <v>999</v>
+        <v>155</v>
       </c>
       <c r="H46" s="17">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="I46" s="5">
         <v>3</v>
@@ -2706,16 +2706,16 @@
         <v>86</v>
       </c>
       <c r="E47" s="16">
-        <v>0</v>
+        <v>9017</v>
       </c>
       <c r="F47" s="17">
-        <v>999</v>
+        <v>53.5</v>
       </c>
       <c r="G47" s="17">
-        <v>999</v>
+        <v>89</v>
       </c>
       <c r="H47" s="17">
-        <v>0</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2729,16 +2729,16 @@
         <v>66</v>
       </c>
       <c r="E48" s="16">
-        <v>0</v>
+        <v>9017</v>
       </c>
       <c r="F48" s="17">
-        <v>999</v>
+        <v>39</v>
       </c>
       <c r="G48" s="17">
-        <v>999</v>
+        <v>42.5</v>
       </c>
       <c r="H48" s="17">
-        <v>0</v>
+        <v>48.5</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -2752,16 +2752,16 @@
         <v>67</v>
       </c>
       <c r="E49" s="16">
-        <v>0</v>
+        <v>9017</v>
       </c>
       <c r="F49" s="17">
-        <v>999</v>
+        <v>62</v>
       </c>
       <c r="G49" s="17">
-        <v>999</v>
+        <v>64</v>
       </c>
       <c r="H49" s="17">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -2778,16 +2778,16 @@
         <v>110</v>
       </c>
       <c r="E50" s="16">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="F50" s="17">
-        <v>999</v>
+        <v>89</v>
       </c>
       <c r="G50" s="17">
-        <v>999</v>
+        <v>94</v>
       </c>
       <c r="H50" s="17">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="I50" s="5">
         <v>3</v>
@@ -2831,16 +2831,16 @@
         <v>69</v>
       </c>
       <c r="E51" s="16">
-        <v>0</v>
+        <v>9017</v>
       </c>
       <c r="F51" s="17">
-        <v>999</v>
+        <v>44</v>
       </c>
       <c r="G51" s="17">
-        <v>999</v>
+        <v>48</v>
       </c>
       <c r="H51" s="17">
-        <v>0</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -2854,16 +2854,16 @@
         <v>70</v>
       </c>
       <c r="E52" s="16">
-        <v>0</v>
+        <v>9017</v>
       </c>
       <c r="F52" s="17">
-        <v>999</v>
+        <v>30</v>
       </c>
       <c r="G52" s="17">
-        <v>999</v>
+        <v>39</v>
       </c>
       <c r="H52" s="17">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -2877,16 +2877,16 @@
         <v>71</v>
       </c>
       <c r="E53" s="16">
-        <v>0</v>
+        <v>9017</v>
       </c>
       <c r="F53" s="17">
-        <v>999</v>
+        <v>57</v>
       </c>
       <c r="G53" s="17">
-        <v>999</v>
+        <v>64</v>
       </c>
       <c r="H53" s="17">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:18">
@@ -2900,16 +2900,16 @@
         <v>72</v>
       </c>
       <c r="E54" s="16">
-        <v>0</v>
+        <v>9017</v>
       </c>
       <c r="F54" s="17">
-        <v>999</v>
+        <v>51</v>
       </c>
       <c r="G54" s="17">
-        <v>999</v>
+        <v>53</v>
       </c>
       <c r="H54" s="17">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -2926,16 +2926,16 @@
         <v>120</v>
       </c>
       <c r="E55" s="16">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F55" s="17">
-        <v>999</v>
+        <v>99</v>
       </c>
       <c r="G55" s="17">
-        <v>999</v>
+        <v>108</v>
       </c>
       <c r="H55" s="17">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="I55" s="5">
         <v>3</v>
@@ -2967,16 +2967,16 @@
         <v>74</v>
       </c>
       <c r="E56" s="16">
-        <v>0</v>
+        <v>9017</v>
       </c>
       <c r="F56" s="17">
-        <v>999</v>
+        <v>53</v>
       </c>
       <c r="G56" s="17">
-        <v>999</v>
+        <v>68.5</v>
       </c>
       <c r="H56" s="17">
-        <v>0</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -2990,16 +2990,16 @@
         <v>75</v>
       </c>
       <c r="E57" s="16">
-        <v>0</v>
+        <v>9017</v>
       </c>
       <c r="F57" s="17">
-        <v>999</v>
+        <v>45</v>
       </c>
       <c r="G57" s="17">
-        <v>999</v>
+        <v>45</v>
       </c>
       <c r="H57" s="17">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -3016,16 +3016,16 @@
         <v>130</v>
       </c>
       <c r="E58" s="16">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="F58" s="17">
-        <v>999</v>
+        <v>122</v>
       </c>
       <c r="G58" s="17">
-        <v>999</v>
+        <v>122</v>
       </c>
       <c r="H58" s="17">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="I58" s="5">
         <v>3</v>
@@ -3057,16 +3057,16 @@
         <v>77</v>
       </c>
       <c r="E59" s="16">
-        <v>0</v>
+        <v>9017</v>
       </c>
       <c r="F59" s="17">
-        <v>999</v>
+        <v>36</v>
       </c>
       <c r="G59" s="17">
-        <v>999</v>
+        <v>37.5</v>
       </c>
       <c r="H59" s="17">
-        <v>0</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -3080,16 +3080,16 @@
         <v>78</v>
       </c>
       <c r="E60" s="16">
-        <v>0</v>
+        <v>9017</v>
       </c>
       <c r="F60" s="17">
-        <v>999</v>
+        <v>31</v>
       </c>
       <c r="G60" s="17">
-        <v>999</v>
+        <v>38</v>
       </c>
       <c r="H60" s="17">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -3106,16 +3106,16 @@
         <v>140</v>
       </c>
       <c r="E61" s="16">
-        <v>0</v>
+        <v>46.5</v>
       </c>
       <c r="F61" s="17">
-        <v>999</v>
+        <v>50.5</v>
       </c>
       <c r="G61" s="17">
-        <v>999</v>
+        <v>55.5</v>
       </c>
       <c r="H61" s="17">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I61" s="5">
         <v>3</v>
@@ -3147,16 +3147,16 @@
         <v>80</v>
       </c>
       <c r="E62" s="16">
-        <v>0</v>
+        <v>9017</v>
       </c>
       <c r="F62" s="17">
-        <v>999</v>
+        <v>48.5</v>
       </c>
       <c r="G62" s="17">
-        <v>999</v>
+        <v>52.5</v>
       </c>
       <c r="H62" s="17">
-        <v>0</v>
+        <v>59.5</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -3170,16 +3170,16 @@
         <v>81</v>
       </c>
       <c r="E63" s="16">
-        <v>0</v>
+        <v>9017</v>
       </c>
       <c r="F63" s="17">
-        <v>999</v>
+        <v>53.5</v>
       </c>
       <c r="G63" s="17">
-        <v>999</v>
+        <v>59.5</v>
       </c>
       <c r="H63" s="17">
-        <v>0</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -3196,16 +3196,16 @@
         <v>155</v>
       </c>
       <c r="E64" s="16">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F64" s="17">
-        <v>999</v>
+        <v>9017</v>
       </c>
       <c r="G64" s="17">
-        <v>999</v>
+        <v>9017</v>
       </c>
       <c r="H64" s="17">
-        <v>0</v>
+        <v>9017</v>
       </c>
       <c r="I64" s="5">
         <v>3</v>
@@ -3225,16 +3225,16 @@
         <v>83</v>
       </c>
       <c r="E65" s="16">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="F65" s="17">
-        <v>999</v>
+        <v>9017</v>
       </c>
       <c r="G65" s="17">
-        <v>999</v>
+        <v>9017</v>
       </c>
       <c r="H65" s="17">
-        <v>0</v>
+        <v>9017</v>
       </c>
     </row>
   </sheetData>
@@ -3255,7 +3255,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.9"/>

--- a/Input/CTTT/CTTT.xlsx
+++ b/Input/CTTT/CTTT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a0e9ff80be76c762/Tools/Software/OBS/CaptainToad/Strategy/DP4SR/Input/CTTT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="346" documentId="13_ncr:1_{7D58863E-E4EA-4DC2-887E-96AFF5E74659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{129FFCF8-5597-45AB-A574-8D0849FA073E}"/>
+  <xr:revisionPtr revIDLastSave="356" documentId="13_ncr:1_{7D58863E-E4EA-4DC2-887E-96AFF5E74659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{807436AF-7F94-4BE9-865C-7F69217AE1DF}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2494,7 +2494,7 @@
         <v>58</v>
       </c>
       <c r="H40" s="17">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2761,7 +2761,7 @@
         <v>64</v>
       </c>
       <c r="H49" s="17">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:18">
@@ -2837,7 +2837,7 @@
         <v>44</v>
       </c>
       <c r="G51" s="17">
-        <v>48</v>
+        <v>47.5</v>
       </c>
       <c r="H51" s="17">
         <v>80.5</v>
@@ -2993,10 +2993,10 @@
         <v>9017</v>
       </c>
       <c r="F57" s="17">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G57" s="17">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H57" s="17">
         <v>90</v>
@@ -3173,13 +3173,13 @@
         <v>9017</v>
       </c>
       <c r="F63" s="17">
-        <v>53.5</v>
+        <v>53</v>
       </c>
       <c r="G63" s="17">
-        <v>59.5</v>
+        <v>58.5</v>
       </c>
       <c r="H63" s="17">
-        <v>73.5</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="64" spans="1:18">

--- a/Input/CTTT/CTTT.xlsx
+++ b/Input/CTTT/CTTT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a0e9ff80be76c762/Tools/Software/OBS/CaptainToad/Strategy/DP4SR/Input/CTTT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="356" documentId="13_ncr:1_{7D58863E-E4EA-4DC2-887E-96AFF5E74659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{807436AF-7F94-4BE9-865C-7F69217AE1DF}"/>
+  <xr:revisionPtr revIDLastSave="357" documentId="13_ncr:1_{7D58863E-E4EA-4DC2-887E-96AFF5E74659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC0B7B0E-C78E-46C0-BB1E-FCE41F52EFA6}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4791" yWindow="1286" windowWidth="23572" windowHeight="15557" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Levels" sheetId="1" r:id="rId1"/>
@@ -1274,10 +1274,10 @@
   <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.9"/>
@@ -2999,7 +2999,7 @@
         <v>37</v>
       </c>
       <c r="H57" s="17">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:18">

--- a/Input/CTTT/CTTT.xlsx
+++ b/Input/CTTT/CTTT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a0e9ff80be76c762/Tools/Software/OBS/CaptainToad/Strategy/DP4SR/Input/CTTT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="357" documentId="13_ncr:1_{7D58863E-E4EA-4DC2-887E-96AFF5E74659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC0B7B0E-C78E-46C0-BB1E-FCE41F52EFA6}"/>
+  <xr:revisionPtr revIDLastSave="358" documentId="13_ncr:1_{7D58863E-E4EA-4DC2-887E-96AFF5E74659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD3DF30A-0096-4024-920F-3A65CCD6E5AD}"/>
   <bookViews>
-    <workbookView xWindow="4791" yWindow="1286" windowWidth="23572" windowHeight="15557" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="1663" windowWidth="23571" windowHeight="15557" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Levels" sheetId="1" r:id="rId1"/>
@@ -1274,10 +1274,10 @@
   <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H57" sqref="H57"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.9"/>
@@ -2494,7 +2494,7 @@
         <v>58</v>
       </c>
       <c r="H40" s="17">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:16">

--- a/Input/CTTT/CTTT.xlsx
+++ b/Input/CTTT/CTTT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a0e9ff80be76c762/Tools/Software/OBS/CaptainToad/Strategy/DP4SR/Input/CTTT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="358" documentId="13_ncr:1_{7D58863E-E4EA-4DC2-887E-96AFF5E74659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD3DF30A-0096-4024-920F-3A65CCD6E5AD}"/>
+  <xr:revisionPtr revIDLastSave="382" documentId="13_ncr:1_{7D58863E-E4EA-4DC2-887E-96AFF5E74659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A61CE2C7-DCB3-4B82-A95E-CFB45C80CBA3}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="1663" windowWidth="23571" windowHeight="15557" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Levels" sheetId="1" r:id="rId1"/>
@@ -1658,13 +1658,13 @@
         <v>25</v>
       </c>
       <c r="F12" s="17">
-        <v>33.5</v>
+        <v>31.5</v>
       </c>
       <c r="G12" s="17">
         <v>39</v>
       </c>
       <c r="H12" s="17">
-        <v>55.5</v>
+        <v>53</v>
       </c>
       <c r="I12" s="5">
         <v>1</v>
@@ -2154,16 +2154,16 @@
         <v>48</v>
       </c>
       <c r="E29" s="16">
+        <v>39.5</v>
+      </c>
+      <c r="F29" s="17">
+        <v>39.5</v>
+      </c>
+      <c r="G29" s="17">
         <v>40.5</v>
       </c>
-      <c r="F29" s="17">
-        <v>40.5</v>
-      </c>
-      <c r="G29" s="17">
-        <v>41</v>
-      </c>
       <c r="H29" s="17">
-        <v>59.5</v>
+        <v>55.5</v>
       </c>
       <c r="I29" s="5">
         <v>2</v>
@@ -2366,10 +2366,10 @@
         <v>54.5</v>
       </c>
       <c r="G36" s="17">
-        <v>61.5</v>
+        <v>59.5</v>
       </c>
       <c r="H36" s="17">
-        <v>83.5</v>
+        <v>80.5</v>
       </c>
       <c r="I36" s="5">
         <v>2</v>
@@ -2837,7 +2837,7 @@
         <v>44</v>
       </c>
       <c r="G51" s="17">
-        <v>47.5</v>
+        <v>46</v>
       </c>
       <c r="H51" s="17">
         <v>80.5</v>
@@ -3179,7 +3179,7 @@
         <v>58.5</v>
       </c>
       <c r="H63" s="17">
-        <v>69.5</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:18">
